--- a/reports/RandomForest_hyperparameter_results.xlsx
+++ b/reports/RandomForest_hyperparameter_results.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -429,21 +429,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="34.7734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.9609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.35546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.76953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.01171875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.64453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">

--- a/reports/RandomForest_hyperparameter_results.xlsx
+++ b/reports/RandomForest_hyperparameter_results.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28af51b033be6ff1/Documents/Springboard/git_repositories/DataScienceCapstoneTwo/reports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carsten.bruckner\OneDrive\Documents\Springboard\git_repositories\DataScienceCapstoneTwo\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{9C5CD823-0860-B747-9687-22316CEA5F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C689545F-B22B-2B4E-BDC0-1ECF1CC93A9E}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="8_{9C5CD823-0860-B747-9687-22316CEA5F70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{5476FBE4-37D4-48C4-ADD2-8CC34CE1B1CA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{33920E5B-2082-5043-8FD3-39233B98A444}"/>
+    <workbookView xWindow="13575" yWindow="4605" windowWidth="21450" windowHeight="15285" xr2:uid="{33920E5B-2082-5043-8FD3-39233B98A444}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$I$115</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="15">
   <si>
     <t>best</t>
   </si>
@@ -74,12 +76,18 @@
   <si>
     <t>balanced_accuracy</t>
   </si>
+  <si>
+    <t>n_estimators (trees)</t>
+  </si>
+  <si>
+    <t>parameter index</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,16 +95,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -104,15 +124,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -425,33 +471,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF67F70-30F4-EB4C-8F6B-247BA42C96EF}">
-  <dimension ref="A1:I116"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomRight" activeCell="I103" sqref="I103"/>
+      <selection pane="bottomRight" activeCell="B123" sqref="B123:D135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.9609375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.35546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.76953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.01171875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.64453125" customWidth="1"/>
+    <col min="1" max="1" width="34.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="5" width="19.875" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="8.875" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -477,7 +522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -503,7 +548,7 @@
         <v>0.84933771999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -529,7 +574,7 @@
         <v>0.84915061000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -555,7 +600,7 @@
         <v>0.84886152000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -581,7 +626,7 @@
         <v>0.84881236000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -607,7 +652,7 @@
         <v>0.84884704</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -633,7 +678,7 @@
         <v>0.84956505000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -659,7 +704,7 @@
         <v>0.84933661999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -685,7 +730,7 @@
         <v>0.84899915000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -711,7 +756,7 @@
         <v>0.84869508999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -737,7 +782,7 @@
         <v>0.84890927999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -763,7 +808,7 @@
         <v>0.84907589999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -789,7 +834,7 @@
         <v>0.84907589999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -815,7 +860,7 @@
         <v>0.84907589999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -841,7 +886,7 @@
         <v>0.84869541999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -867,7 +912,7 @@
         <v>0.84894418999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -893,7 +938,7 @@
         <v>0.84848173999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -919,7 +964,7 @@
         <v>0.84848173999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -945,7 +990,7 @@
         <v>0.84848173999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -971,7 +1016,7 @@
         <v>0.84848173999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -997,7 +1042,7 @@
         <v>0.84889541000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1023,7 +1068,7 @@
         <v>0.86462030999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1049,7 +1094,7 @@
         <v>0.86479059999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1075,7 +1120,7 @@
         <v>0.86372346</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1101,7 +1146,7 @@
         <v>0.86389404999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1127,7 +1172,7 @@
         <v>0.86403152999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1153,7 +1198,7 @@
         <v>0.86473657000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1179,7 +1224,7 @@
         <v>0.86429639000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1205,7 +1250,7 @@
         <v>0.86409453000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1231,7 +1276,7 @@
         <v>0.86443276999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1257,7 +1302,7 @@
         <v>0.86415491</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1283,7 +1328,7 @@
         <v>0.86430788000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1309,7 +1354,7 @@
         <v>0.86430788000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1335,7 +1380,7 @@
         <v>0.86430788000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1361,7 +1406,7 @@
         <v>0.86455813000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1387,7 +1432,7 @@
         <v>0.86392703999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -1413,7 +1458,7 @@
         <v>0.86433042999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -1439,7 +1484,7 @@
         <v>0.86433042999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1465,7 +1510,7 @@
         <v>0.86433042999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -1491,7 +1536,7 @@
         <v>0.86433042999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1517,7 +1562,7 @@
         <v>0.86384466999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -1543,7 +1588,7 @@
         <v>0.87464098000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -1569,7 +1614,7 @@
         <v>0.87535087</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -1595,7 +1640,7 @@
         <v>0.87573635000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -1621,7 +1666,7 @@
         <v>0.87565225000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -1647,7 +1692,7 @@
         <v>0.87299643999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -1673,7 +1718,7 @@
         <v>0.87526022000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -1699,7 +1744,7 @@
         <v>0.87586914000000005</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -1725,7 +1770,7 @@
         <v>0.87551723999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -1751,7 +1796,7 @@
         <v>0.87521188999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -1777,7 +1822,7 @@
         <v>0.87258988000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -1803,7 +1848,7 @@
         <v>0.87521269000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -1829,7 +1874,7 @@
         <v>0.87521269000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -1855,7 +1900,7 @@
         <v>0.87521269000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -1881,7 +1926,7 @@
         <v>0.87494366000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -1907,7 +1952,7 @@
         <v>0.87292192000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -1933,7 +1978,7 @@
         <v>0.87517177000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -1959,7 +2004,7 @@
         <v>0.87517177000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -1985,7 +2030,7 @@
         <v>0.87517177000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -2011,7 +2056,7 @@
         <v>0.87517177000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -2037,7 +2082,7 @@
         <v>0.87294210000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -2063,7 +2108,7 @@
         <v>0.87816017000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -2089,7 +2134,7 @@
         <v>0.87724281999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -2115,7 +2160,7 @@
         <v>0.87793197000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -2141,7 +2186,7 @@
         <v>0.87737971000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -2167,7 +2212,7 @@
         <v>0.87337940999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2193,7 +2238,7 @@
         <v>0.87732794000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -2219,7 +2264,7 @@
         <v>0.87720275000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -2245,7 +2290,7 @@
         <v>0.87765742000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -2271,7 +2316,7 @@
         <v>0.87729177000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -2297,7 +2342,7 @@
         <v>0.87410496999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -2323,7 +2368,7 @@
         <v>0.87679940999999995</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -2349,7 +2394,7 @@
         <v>0.87679940999999995</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -2375,7 +2420,7 @@
         <v>0.87679940999999995</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -2401,7 +2446,7 @@
         <v>0.87697840999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -2427,7 +2472,7 @@
         <v>0.87320112999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -2453,7 +2498,7 @@
         <v>0.87610602999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -2479,7 +2524,7 @@
         <v>0.87610602999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -2505,7 +2550,7 @@
         <v>0.87610602999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -2531,7 +2576,7 @@
         <v>0.87610602999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -2557,7 +2602,7 @@
         <v>0.87234780999999995</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -2583,7 +2628,7 @@
         <v>0.87742631999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -2609,7 +2654,7 @@
         <v>0.87800047999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -2635,7 +2680,7 @@
         <v>0.87790515000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -2661,7 +2706,7 @@
         <v>0.87794636000000004</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -2687,7 +2732,7 @@
         <v>0.87366147000000005</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -2713,7 +2758,7 @@
         <v>0.87737525999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -2739,7 +2784,7 @@
         <v>0.87618876000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -2765,7 +2810,7 @@
         <v>0.87776789</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -2791,7 +2836,7 @@
         <v>0.87752735000000004</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -2817,7 +2862,7 @@
         <v>0.87348316000000004</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -2843,7 +2888,7 @@
         <v>0.87673698</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -2869,7 +2914,7 @@
         <v>0.87673698</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -2895,7 +2940,7 @@
         <v>0.87673698</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -2921,7 +2966,7 @@
         <v>0.87717195000000003</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -2947,7 +2992,7 @@
         <v>0.87329778000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -2973,7 +3018,7 @@
         <v>0.87595363999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -2999,7 +3044,7 @@
         <v>0.87595363999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -3025,7 +3070,7 @@
         <v>0.87595363999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -3051,7 +3096,7 @@
         <v>0.87595363999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -3077,12 +3122,38 @@
         <v>0.87267912000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="1">
+        <v>25</v>
+      </c>
+      <c r="C103">
+        <v>25</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103" t="s">
+        <v>5</v>
+      </c>
+      <c r="G103" t="s">
+        <v>4</v>
+      </c>
+      <c r="H103">
+        <v>0.87386032000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>10</v>
       </c>
-      <c r="B104" s="1">
-        <v>25</v>
+      <c r="B104">
+        <v>50</v>
       </c>
       <c r="C104">
         <v>25</v>
@@ -3100,15 +3171,15 @@
         <v>4</v>
       </c>
       <c r="H104">
-        <v>0.87386032000000002</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.87712645</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>10</v>
       </c>
       <c r="B105">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C105">
         <v>25</v>
@@ -3126,15 +3197,15 @@
         <v>4</v>
       </c>
       <c r="H105">
-        <v>0.87712645</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.87816017000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>10</v>
       </c>
       <c r="B106">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C106">
         <v>25</v>
@@ -3152,15 +3223,15 @@
         <v>4</v>
       </c>
       <c r="H106">
-        <v>0.87816017000000002</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.87813476999999995</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>10</v>
       </c>
       <c r="B107">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C107">
         <v>25</v>
@@ -3178,15 +3249,15 @@
         <v>4</v>
       </c>
       <c r="H107">
-        <v>0.87813476999999995</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.87799687000000004</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>10</v>
       </c>
       <c r="B108">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="C108">
         <v>25</v>
@@ -3204,203 +3275,347 @@
         <v>4</v>
       </c>
       <c r="H108">
-        <v>0.87799687000000004</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.87837693999999999</v>
+      </c>
+      <c r="I108" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>10</v>
       </c>
       <c r="B109">
+        <v>25</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109" t="s">
+        <v>5</v>
+      </c>
+      <c r="G109" t="s">
+        <v>4</v>
+      </c>
+      <c r="H109">
+        <v>0.87400281999999996</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110">
+        <v>50</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G110" t="s">
+        <v>4</v>
+      </c>
+      <c r="H110">
+        <v>0.87710911000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111">
+        <v>100</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111" t="s">
+        <v>5</v>
+      </c>
+      <c r="G111" t="s">
+        <v>4</v>
+      </c>
+      <c r="H111">
+        <v>0.87706525999999996</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112">
+        <v>200</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112" t="s">
+        <v>5</v>
+      </c>
+      <c r="G112" t="s">
+        <v>4</v>
+      </c>
+      <c r="H112">
+        <v>0.87748276000000003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113">
+        <v>400</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113" t="s">
+        <v>5</v>
+      </c>
+      <c r="G113" t="s">
+        <v>4</v>
+      </c>
+      <c r="H113">
+        <v>0.87773294000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114">
         <v>800</v>
       </c>
-      <c r="C109">
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="F114" t="s">
+        <v>5</v>
+      </c>
+      <c r="G114" t="s">
+        <v>4</v>
+      </c>
+      <c r="H114">
+        <v>0.87818193</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <f>MAX(H3:H114)</f>
+        <v>0.87837693999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="3">
+        <v>1</v>
+      </c>
+      <c r="C124" s="3">
         <v>25</v>
       </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-      <c r="E109">
-        <v>2</v>
-      </c>
-      <c r="F109" t="s">
-        <v>5</v>
-      </c>
-      <c r="G109" t="s">
-        <v>4</v>
-      </c>
-      <c r="H109">
-        <v>0.87837693999999999</v>
-      </c>
-      <c r="I109" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B110">
+      <c r="D124" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="3">
+        <v>1</v>
+      </c>
+      <c r="C125" s="3">
+        <v>50</v>
+      </c>
+      <c r="D125" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="3">
+        <v>2</v>
+      </c>
+      <c r="C126" s="3">
+        <v>100</v>
+      </c>
+      <c r="D126" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="3">
+        <v>3</v>
+      </c>
+      <c r="C127" s="3">
+        <v>800</v>
+      </c>
+      <c r="D127" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="3">
+        <v>4</v>
+      </c>
+      <c r="C128" s="3">
         <v>25</v>
       </c>
-      <c r="C110" t="s">
-        <v>5</v>
-      </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-      <c r="E110">
-        <v>2</v>
-      </c>
-      <c r="F110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G110" t="s">
-        <v>4</v>
-      </c>
-      <c r="H110">
-        <v>0.87400281999999996</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>10</v>
-      </c>
-      <c r="B111">
-        <v>50</v>
-      </c>
-      <c r="C111" t="s">
-        <v>5</v>
-      </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-      <c r="E111">
-        <v>2</v>
-      </c>
-      <c r="F111" t="s">
-        <v>5</v>
-      </c>
-      <c r="G111" t="s">
-        <v>4</v>
-      </c>
-      <c r="H111">
-        <v>0.87710911000000003</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>10</v>
-      </c>
-      <c r="B112">
+      <c r="D128" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="3">
+        <v>5</v>
+      </c>
+      <c r="C129" s="3">
+        <v>50</v>
+      </c>
+      <c r="D129" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="3">
+        <v>6</v>
+      </c>
+      <c r="C130" s="3">
         <v>100</v>
       </c>
-      <c r="C112" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-      <c r="E112">
-        <v>2</v>
-      </c>
-      <c r="F112" t="s">
-        <v>5</v>
-      </c>
-      <c r="G112" t="s">
-        <v>4</v>
-      </c>
-      <c r="H112">
-        <v>0.87706525999999996</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>10</v>
-      </c>
-      <c r="B113">
-        <v>200</v>
-      </c>
-      <c r="C113" t="s">
-        <v>5</v>
-      </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-      <c r="E113">
-        <v>2</v>
-      </c>
-      <c r="F113" t="s">
-        <v>5</v>
-      </c>
-      <c r="G113" t="s">
-        <v>4</v>
-      </c>
-      <c r="H113">
-        <v>0.87748276000000003</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>10</v>
-      </c>
-      <c r="B114">
-        <v>400</v>
-      </c>
-      <c r="C114" t="s">
-        <v>5</v>
-      </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-      <c r="E114">
-        <v>2</v>
-      </c>
-      <c r="F114" t="s">
-        <v>5</v>
-      </c>
-      <c r="G114" t="s">
-        <v>4</v>
-      </c>
-      <c r="H114">
-        <v>0.87773294000000002</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>10</v>
-      </c>
-      <c r="B115">
+      <c r="D130" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" s="4">
+        <v>7</v>
+      </c>
+      <c r="C131" s="3">
         <v>800</v>
       </c>
-      <c r="C115" t="s">
-        <v>5</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-      <c r="E115">
-        <v>2</v>
-      </c>
-      <c r="F115" t="s">
-        <v>5</v>
-      </c>
-      <c r="G115" t="s">
-        <v>4</v>
-      </c>
-      <c r="H115">
-        <v>0.87818193</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I116">
-        <f>MAX(H3:H115)</f>
-        <v>0.87837693999999999</v>
+      <c r="D131" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" s="3">
+        <v>8</v>
+      </c>
+      <c r="C132" s="3">
+        <v>25</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="3">
+        <v>9</v>
+      </c>
+      <c r="C133" s="3">
+        <v>50</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="3">
+        <v>10</v>
+      </c>
+      <c r="C134" s="3">
+        <v>100</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="3">
+        <v>11</v>
+      </c>
+      <c r="C135" s="3">
+        <v>800</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H3:H115">
-    <cfRule type="colorScale" priority="2">
+  <autoFilter ref="A2:I115" xr:uid="{4CD1C14B-F0D7-4FEA-B05F-4D9AAAD76D3E}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="100"/>
+        <filter val="25"/>
+        <filter val="50"/>
+        <filter val="800"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="15"/>
+        <filter val="25"/>
+        <filter val="None"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="H3:H114">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
